--- a/binyGogo/level_linear.xlsx
+++ b/binyGogo/level_linear.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ather\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ather\Documents\GitHub\gogo14basiccom\binyGogo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>x</t>
   </si>
@@ -47,18 +47,38 @@
   <si>
     <t>สูตรคำนวนด่าน</t>
   </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>จำนวนข้อ</t>
+  </si>
+  <si>
+    <t>ผลต่าง</t>
+  </si>
+  <si>
+    <t>ความคุ้มค่าต่อหน่วย</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -88,7 +108,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -96,11 +116,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -121,6 +156,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -615,11 +655,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="432994592"/>
-        <c:axId val="433007648"/>
+        <c:axId val="-1804216656"/>
+        <c:axId val="-1804211216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="432994592"/>
+        <c:axId val="-1804216656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -662,12 +702,12 @@
             <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433007648"/>
+        <c:crossAx val="-1804211216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="433007648"/>
+        <c:axId val="-1804211216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -718,7 +758,7 @@
             <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432994592"/>
+        <c:crossAx val="-1804216656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1287,11 +1327,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="432998400"/>
-        <c:axId val="432998944"/>
+        <c:axId val="-1804216112"/>
+        <c:axId val="-1804207408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="432998400"/>
+        <c:axId val="-1804216112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1348,12 +1388,12 @@
             <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432998944"/>
+        <c:crossAx val="-1804207408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="432998944"/>
+        <c:axId val="-1804207408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,7 +1450,452 @@
             <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432998400"/>
+        <c:crossAx val="-1804216112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="th-TH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="th-TH"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="th-TH"/>
+              <a:t>ความคุ้มค่าต่อหน่วย</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.2997594050743663E-2"/>
+          <c:y val="0.16894685039370078"/>
+          <c:w val="0.88822462817147851"/>
+          <c:h val="0.72179024496937882"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$3:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5555555555555554</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.6363636363636367</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7692307692307692</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.8571428571428568</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.2352941176470589</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.3888888888888893</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.5263157894736841</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.8571428571428568</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.5909090909090908</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1565376080"/>
+        <c:axId val="-1565373904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1565376080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1565373904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1565373904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1565376080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1539,6 +2024,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2056,6 +2581,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2628,6 +3669,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="แผนภูมิ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4109,9 +5185,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -4119,355 +5201,367 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="11">
         <v>12</v>
       </c>
-      <c r="D2" s="2">
-        <f>B2/A2</f>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12">
+        <f>B3/A3</f>
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="11">
         <v>14</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C23" si="0">B3-B2</f>
+      <c r="C4" s="11">
+        <f t="shared" ref="C4:C24" si="0">B4-B3</f>
         <v>2</v>
       </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D23" si="1">B3/A3</f>
+      <c r="D4" s="12">
+        <f t="shared" ref="D4:D24" si="1">B4/A4</f>
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="11">
         <v>17</v>
       </c>
-      <c r="C4">
+      <c r="C5" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="12">
         <f t="shared" si="1"/>
         <v>5.666666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="11">
         <v>22</v>
       </c>
-      <c r="C5">
+      <c r="C6" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="12">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="11">
         <v>25</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="12">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="11">
         <v>29</v>
       </c>
-      <c r="C7">
+      <c r="C8" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="12">
         <f t="shared" si="1"/>
         <v>4.833333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B9" s="11">
         <v>33</v>
       </c>
-      <c r="C8">
+      <c r="C9" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="12">
         <f t="shared" si="1"/>
         <v>4.7142857142857144</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B10" s="11">
         <v>37</v>
       </c>
-      <c r="C9">
+      <c r="C10" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="12">
         <f t="shared" si="1"/>
         <v>4.625</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B11" s="11">
         <v>41</v>
       </c>
-      <c r="C10">
+      <c r="C11" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="12">
         <f t="shared" si="1"/>
         <v>4.5555555555555554</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B12" s="11">
         <v>46</v>
       </c>
-      <c r="C11">
+      <c r="C12" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D11" s="2">
-        <f>B11/A11</f>
+      <c r="D12" s="12">
+        <f>B12/A12</f>
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B13" s="11">
         <v>51</v>
       </c>
-      <c r="C12">
+      <c r="C13" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="12">
         <f t="shared" si="1"/>
         <v>4.6363636363636367</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B14" s="11">
         <v>56</v>
       </c>
-      <c r="C13">
+      <c r="C14" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D14" s="12">
         <f t="shared" si="1"/>
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B15" s="11">
         <v>62</v>
       </c>
-      <c r="C14">
+      <c r="C15" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="12">
         <f t="shared" si="1"/>
         <v>4.7692307692307692</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B16" s="11">
         <v>68</v>
       </c>
-      <c r="C15">
+      <c r="C16" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="12">
         <f t="shared" si="1"/>
         <v>4.8571428571428568</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B17" s="11">
         <v>75</v>
       </c>
-      <c r="C16">
+      <c r="C17" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D17" s="12">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B18" s="11">
         <v>82</v>
       </c>
-      <c r="C17">
+      <c r="C18" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="12">
         <f t="shared" si="1"/>
         <v>5.125</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B19" s="11">
         <v>89</v>
       </c>
-      <c r="C18">
+      <c r="C19" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D19" s="12">
         <f t="shared" si="1"/>
         <v>5.2352941176470589</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B20" s="11">
         <v>97</v>
       </c>
-      <c r="C19">
+      <c r="C20" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D20" s="12">
         <f t="shared" si="1"/>
         <v>5.3888888888888893</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B21" s="11">
         <v>105</v>
       </c>
-      <c r="C20">
+      <c r="C21" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D21" s="12">
         <f t="shared" si="1"/>
         <v>5.5263157894736841</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22" s="11">
         <v>114</v>
       </c>
-      <c r="C21">
+      <c r="C22" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D22" s="12">
         <f t="shared" si="1"/>
         <v>5.7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B23" s="11">
         <v>123</v>
       </c>
-      <c r="C22">
+      <c r="C23" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D23" s="12">
         <f t="shared" si="1"/>
         <v>5.8571428571428568</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B24" s="11">
         <v>123</v>
       </c>
-      <c r="C23">
+      <c r="C24" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D24" s="12">
         <f t="shared" si="1"/>
         <v>5.5909090909090908</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
@@ -4476,5 +5570,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>